--- a/django_vue/apep/data/BaseOPCO.xlsx
+++ b/django_vue/apep/data/BaseOPCO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJET\DOC\Apep\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJET\DJANGO_apep_social\SILAE\django_vue\apep\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1172,7 +1172,7 @@
     <t>ATLAS</t>
   </si>
   <si>
-    <t>148 boulevard Haussmann;75008 Paris</t>
+    <t>TSA 40 001;75621 Paris Cedex13</t>
   </si>
 </sst>
 </file>
@@ -1344,15 +1344,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -1361,6 +1352,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -1371,8 +1365,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1657,7 +1657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A320" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
       <selection activeCell="F322" sqref="F322:F341"/>
     </sheetView>
   </sheetViews>
@@ -1676,7 +1676,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="7" t="s">
@@ -1694,7 +1694,7 @@
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -1714,7 +1714,7 @@
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -1732,7 +1732,7 @@
         <v>3176</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -1752,7 +1752,7 @@
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -1772,7 +1772,7 @@
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -1792,7 +1792,7 @@
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -1812,7 +1812,7 @@
       <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -1832,7 +1832,7 @@
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="7" t="s">
@@ -1850,7 +1850,7 @@
       <c r="D10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="7" t="s">
@@ -1870,7 +1870,7 @@
       <c r="D11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F11" s="7" t="s">
@@ -1890,7 +1890,7 @@
       <c r="D12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F12" s="7" t="s">
@@ -1910,7 +1910,7 @@
       <c r="D13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F13" s="7" t="s">
@@ -1930,7 +1930,7 @@
       <c r="D14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F14" s="7" t="s">
@@ -1950,7 +1950,7 @@
       <c r="D15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="7" t="s">
@@ -1970,7 +1970,7 @@
       <c r="D16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F16" s="7" t="s">
@@ -1990,7 +1990,7 @@
       <c r="D17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="7" t="s">
@@ -2010,7 +2010,7 @@
       <c r="D18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F18" s="7" t="s">
@@ -2030,7 +2030,7 @@
       <c r="D19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F19" s="7" t="s">
@@ -2050,7 +2050,7 @@
       <c r="D20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F20" s="7" t="s">
@@ -2066,7 +2066,7 @@
       <c r="D21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F21" s="7" t="s">
@@ -2086,7 +2086,7 @@
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F22" s="7" t="s">
@@ -2104,7 +2104,7 @@
         <v>3318</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F23" s="7" t="s">
@@ -2124,7 +2124,7 @@
       <c r="D24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F24" s="7" t="s">
@@ -2144,7 +2144,7 @@
       <c r="D25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F25" s="7" t="s">
@@ -2164,7 +2164,7 @@
       <c r="D26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F26" s="7" t="s">
@@ -2184,7 +2184,7 @@
       <c r="D27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F27" s="7" t="s">
@@ -2204,7 +2204,7 @@
       <c r="D28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F28" s="7" t="s">
@@ -2222,7 +2222,7 @@
       <c r="D29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F29" s="7" t="s">
@@ -2240,7 +2240,7 @@
       <c r="D30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F30" s="7" t="s">
@@ -2258,7 +2258,7 @@
       <c r="D31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F31" s="7" t="s">
@@ -2278,7 +2278,7 @@
       <c r="D32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F32" s="7" t="s">
@@ -2298,7 +2298,7 @@
       <c r="D33" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F33" s="7" t="s">
@@ -2318,7 +2318,7 @@
       <c r="D34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F34" s="7" t="s">
@@ -2338,7 +2338,7 @@
       <c r="D35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F35" s="7" t="s">
@@ -2358,7 +2358,7 @@
       <c r="D36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F36" s="7" t="s">
@@ -2378,7 +2378,7 @@
       <c r="D37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F37" s="7" t="s">
@@ -2398,7 +2398,7 @@
       <c r="D38" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F38" s="7" t="s">
@@ -2418,7 +2418,7 @@
       <c r="D39" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F39" s="7" t="s">
@@ -2438,7 +2438,7 @@
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F40" s="7" t="s">
@@ -2458,7 +2458,7 @@
       <c r="D41" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F41" s="7" t="s">
@@ -2476,7 +2476,7 @@
       <c r="D42" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F42" s="7" t="s">
@@ -2496,7 +2496,7 @@
       <c r="D43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F43" s="7" t="s">
@@ -2516,7 +2516,7 @@
       <c r="D44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F44" s="7" t="s">
@@ -2536,7 +2536,7 @@
       <c r="D45" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F45" s="7" t="s">
@@ -2556,7 +2556,7 @@
       <c r="D46" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E46" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F46" s="7" t="s">
@@ -2576,7 +2576,7 @@
       <c r="D47" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="E47" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F47" s="7" t="s">
@@ -2584,10 +2584,10 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="8"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="10"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="17"/>
     </row>
     <row r="49" spans="1:6" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
@@ -2602,10 +2602,10 @@
       <c r="D49" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="E49" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F49" s="11" t="s">
+      <c r="F49" s="8" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2622,10 +2622,10 @@
       <c r="D50" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F50" s="11" t="s">
+      <c r="F50" s="8" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2640,10 +2640,10 @@
       <c r="D51" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E51" s="12" t="s">
+      <c r="E51" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F51" s="11" t="s">
+      <c r="F51" s="8" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2660,10 +2660,10 @@
       <c r="D52" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="E52" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F52" s="11" t="s">
+      <c r="F52" s="8" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2680,10 +2680,10 @@
       <c r="D53" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E53" s="12" t="s">
+      <c r="E53" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F53" s="11" t="s">
+      <c r="F53" s="8" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2700,10 +2700,10 @@
       <c r="D54" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E54" s="12" t="s">
+      <c r="E54" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="F54" s="8" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2720,10 +2720,10 @@
       <c r="D55" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E55" s="12" t="s">
+      <c r="E55" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="F55" s="8" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2738,10 +2738,10 @@
       <c r="D56" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E56" s="12" t="s">
+      <c r="E56" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F56" s="11" t="s">
+      <c r="F56" s="8" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2758,10 +2758,10 @@
       <c r="D57" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E57" s="12" t="s">
+      <c r="E57" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F57" s="11" t="s">
+      <c r="F57" s="8" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2778,18 +2778,18 @@
       <c r="D58" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="12" t="s">
+      <c r="E58" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F58" s="11" t="s">
+      <c r="F58" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="8"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="10"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="17"/>
     </row>
     <row r="60" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
@@ -2804,7 +2804,7 @@
       <c r="D60" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E60" s="12" t="s">
+      <c r="E60" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F60" t="s">
@@ -2824,7 +2824,7 @@
       <c r="D61" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E61" s="12" t="s">
+      <c r="E61" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F61" t="s">
@@ -2844,7 +2844,7 @@
       <c r="D62" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="12" t="s">
+      <c r="E62" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F62" t="s">
@@ -2864,7 +2864,7 @@
       <c r="D63" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E63" s="12" t="s">
+      <c r="E63" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F63" t="s">
@@ -2884,7 +2884,7 @@
       <c r="D64" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E64" s="12" t="s">
+      <c r="E64" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F64" t="s">
@@ -2904,7 +2904,7 @@
       <c r="D65" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E65" s="12" t="s">
+      <c r="E65" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F65" t="s">
@@ -2924,7 +2924,7 @@
       <c r="D66" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E66" s="12" t="s">
+      <c r="E66" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F66" t="s">
@@ -2944,7 +2944,7 @@
       <c r="D67" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E67" s="12" t="s">
+      <c r="E67" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F67" t="s">
@@ -2964,7 +2964,7 @@
       <c r="D68" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E68" s="12" t="s">
+      <c r="E68" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F68" t="s">
@@ -2984,7 +2984,7 @@
       <c r="D69" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E69" s="12" t="s">
+      <c r="E69" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F69" t="s">
@@ -3004,7 +3004,7 @@
       <c r="D70" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E70" s="12" t="s">
+      <c r="E70" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F70" t="s">
@@ -3024,7 +3024,7 @@
       <c r="D71" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E71" s="12" t="s">
+      <c r="E71" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F71" t="s">
@@ -3044,7 +3044,7 @@
       <c r="D72" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E72" s="12" t="s">
+      <c r="E72" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F72" t="s">
@@ -3064,7 +3064,7 @@
       <c r="D73" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E73" s="12" t="s">
+      <c r="E73" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F73" t="s">
@@ -3084,7 +3084,7 @@
       <c r="D74" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E74" s="12" t="s">
+      <c r="E74" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F74" t="s">
@@ -3104,7 +3104,7 @@
       <c r="D75" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E75" s="12" t="s">
+      <c r="E75" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F75" t="s">
@@ -3124,7 +3124,7 @@
       <c r="D76" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E76" s="12" t="s">
+      <c r="E76" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F76" t="s">
@@ -3144,7 +3144,7 @@
       <c r="D77" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E77" s="12" t="s">
+      <c r="E77" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F77" t="s">
@@ -3164,7 +3164,7 @@
       <c r="D78" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E78" s="12" t="s">
+      <c r="E78" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F78" t="s">
@@ -3184,7 +3184,7 @@
       <c r="D79" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E79" s="12" t="s">
+      <c r="E79" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F79" t="s">
@@ -3204,7 +3204,7 @@
       <c r="D80" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E80" s="12" t="s">
+      <c r="E80" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F80" t="s">
@@ -3224,7 +3224,7 @@
       <c r="D81" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E81" s="12" t="s">
+      <c r="E81" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F81" t="s">
@@ -3244,7 +3244,7 @@
       <c r="D82" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E82" s="12" t="s">
+      <c r="E82" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F82" t="s">
@@ -3264,7 +3264,7 @@
       <c r="D83" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E83" s="12" t="s">
+      <c r="E83" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F83" t="s">
@@ -3284,7 +3284,7 @@
       <c r="D84" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E84" s="12" t="s">
+      <c r="E84" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F84" t="s">
@@ -3304,7 +3304,7 @@
       <c r="D85" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E85" s="12" t="s">
+      <c r="E85" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F85" t="s">
@@ -3324,7 +3324,7 @@
       <c r="D86" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E86" s="12" t="s">
+      <c r="E86" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F86" t="s">
@@ -3344,7 +3344,7 @@
       <c r="D87" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E87" s="12" t="s">
+      <c r="E87" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F87" t="s">
@@ -3364,7 +3364,7 @@
       <c r="D88" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E88" s="12" t="s">
+      <c r="E88" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F88" t="s">
@@ -3382,7 +3382,7 @@
       <c r="D89" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E89" s="12" t="s">
+      <c r="E89" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F89" t="s">
@@ -3402,7 +3402,7 @@
       <c r="D90" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E90" s="12" t="s">
+      <c r="E90" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F90" t="s">
@@ -3422,7 +3422,7 @@
       <c r="D91" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E91" s="12" t="s">
+      <c r="E91" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F91" t="s">
@@ -3442,7 +3442,7 @@
       <c r="D92" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E92" s="12" t="s">
+      <c r="E92" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F92" t="s">
@@ -3462,7 +3462,7 @@
       <c r="D93" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E93" s="12" t="s">
+      <c r="E93" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F93" t="s">
@@ -3482,7 +3482,7 @@
       <c r="D94" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E94" s="12" t="s">
+      <c r="E94" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F94" t="s">
@@ -3502,7 +3502,7 @@
       <c r="D95" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E95" s="12" t="s">
+      <c r="E95" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F95" t="s">
@@ -3522,7 +3522,7 @@
       <c r="D96" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E96" s="12" t="s">
+      <c r="E96" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F96" t="s">
@@ -3542,7 +3542,7 @@
       <c r="D97" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E97" s="12" t="s">
+      <c r="E97" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F97" t="s">
@@ -3562,7 +3562,7 @@
       <c r="D98" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E98" s="12" t="s">
+      <c r="E98" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F98" t="s">
@@ -3582,7 +3582,7 @@
       <c r="D99" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E99" s="12" t="s">
+      <c r="E99" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F99" t="s">
@@ -3602,7 +3602,7 @@
       <c r="D100" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E100" s="12" t="s">
+      <c r="E100" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F100" t="s">
@@ -3620,7 +3620,7 @@
       <c r="D101" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E101" s="12" t="s">
+      <c r="E101" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F101" t="s">
@@ -3640,7 +3640,7 @@
       <c r="D102" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E102" s="12" t="s">
+      <c r="E102" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F102" t="s">
@@ -3660,7 +3660,7 @@
       <c r="D103" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E103" s="12" t="s">
+      <c r="E103" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F103" t="s">
@@ -3680,7 +3680,7 @@
       <c r="D104" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E104" s="12" t="s">
+      <c r="E104" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F104" t="s">
@@ -3700,7 +3700,7 @@
       <c r="D105" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E105" s="12" t="s">
+      <c r="E105" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F105" t="s">
@@ -3720,7 +3720,7 @@
       <c r="D106" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E106" s="12" t="s">
+      <c r="E106" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F106" t="s">
@@ -3740,7 +3740,7 @@
       <c r="D107" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E107" s="12" t="s">
+      <c r="E107" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F107" t="s">
@@ -3756,7 +3756,7 @@
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="2"/>
-      <c r="E108" s="12" t="s">
+      <c r="E108" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F108" t="s">
@@ -3776,7 +3776,7 @@
       <c r="D109" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E109" s="12" t="s">
+      <c r="E109" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F109" t="s">
@@ -3796,7 +3796,7 @@
       <c r="D110" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E110" s="12" t="s">
+      <c r="E110" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F110" t="s">
@@ -3816,7 +3816,7 @@
       <c r="D111" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E111" s="12" t="s">
+      <c r="E111" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F111" t="s">
@@ -3836,7 +3836,7 @@
       <c r="D112" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E112" s="12" t="s">
+      <c r="E112" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F112" t="s">
@@ -3856,7 +3856,7 @@
       <c r="D113" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E113" s="12" t="s">
+      <c r="E113" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F113" t="s">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="6"/>
-      <c r="E114" s="12" t="s">
+      <c r="E114" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F114" t="s">
@@ -3880,10 +3880,10 @@
       </c>
     </row>
     <row r="115" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="8"/>
-      <c r="B115" s="9"/>
-      <c r="C115" s="9"/>
-      <c r="D115" s="10"/>
+      <c r="A115" s="15"/>
+      <c r="B115" s="16"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="17"/>
     </row>
     <row r="116" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
@@ -3898,7 +3898,7 @@
       <c r="D116" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E116" s="12" t="s">
+      <c r="E116" s="9" t="s">
         <v>128</v>
       </c>
       <c r="F116" t="s">
@@ -3918,7 +3918,7 @@
       <c r="D117" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E117" s="12" t="s">
+      <c r="E117" s="9" t="s">
         <v>128</v>
       </c>
       <c r="F117" t="s">
@@ -3938,7 +3938,7 @@
       <c r="D118" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E118" s="12" t="s">
+      <c r="E118" s="9" t="s">
         <v>128</v>
       </c>
       <c r="F118" t="s">
@@ -3956,7 +3956,7 @@
       <c r="D119" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E119" s="12" t="s">
+      <c r="E119" s="9" t="s">
         <v>128</v>
       </c>
       <c r="F119" t="s">
@@ -3976,7 +3976,7 @@
       <c r="D120" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E120" s="12" t="s">
+      <c r="E120" s="9" t="s">
         <v>128</v>
       </c>
       <c r="F120" t="s">
@@ -3996,7 +3996,7 @@
       <c r="D121" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E121" s="12" t="s">
+      <c r="E121" s="9" t="s">
         <v>128</v>
       </c>
       <c r="F121" t="s">
@@ -4014,7 +4014,7 @@
       <c r="D122" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E122" s="12" t="s">
+      <c r="E122" s="9" t="s">
         <v>128</v>
       </c>
       <c r="F122" t="s">
@@ -4034,7 +4034,7 @@
       <c r="D123" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E123" s="12" t="s">
+      <c r="E123" s="9" t="s">
         <v>128</v>
       </c>
       <c r="F123" t="s">
@@ -4054,7 +4054,7 @@
       <c r="D124" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E124" s="12" t="s">
+      <c r="E124" s="9" t="s">
         <v>128</v>
       </c>
       <c r="F124" t="s">
@@ -4074,7 +4074,7 @@
       <c r="D125" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E125" s="12" t="s">
+      <c r="E125" s="9" t="s">
         <v>128</v>
       </c>
       <c r="F125" t="s">
@@ -4094,7 +4094,7 @@
       <c r="D126" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E126" s="12" t="s">
+      <c r="E126" s="9" t="s">
         <v>128</v>
       </c>
       <c r="F126" t="s">
@@ -4114,7 +4114,7 @@
       <c r="D127" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E127" s="12" t="s">
+      <c r="E127" s="9" t="s">
         <v>128</v>
       </c>
       <c r="F127" t="s">
@@ -4134,7 +4134,7 @@
       <c r="D128" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E128" s="12" t="s">
+      <c r="E128" s="9" t="s">
         <v>128</v>
       </c>
       <c r="F128" t="s">
@@ -4152,7 +4152,7 @@
       <c r="D129" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E129" s="12" t="s">
+      <c r="E129" s="9" t="s">
         <v>128</v>
       </c>
       <c r="F129" t="s">
@@ -4172,7 +4172,7 @@
       <c r="D130" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E130" s="12" t="s">
+      <c r="E130" s="9" t="s">
         <v>128</v>
       </c>
       <c r="F130" t="s">
@@ -4190,7 +4190,7 @@
         <v>3022</v>
       </c>
       <c r="D131" s="2"/>
-      <c r="E131" s="12" t="s">
+      <c r="E131" s="9" t="s">
         <v>128</v>
       </c>
       <c r="F131" t="s">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="C132" s="1"/>
       <c r="D132" s="2"/>
-      <c r="E132" s="12" t="s">
+      <c r="E132" s="9" t="s">
         <v>128</v>
       </c>
       <c r="F132" t="s">
@@ -4222,7 +4222,7 @@
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="2"/>
-      <c r="E133" s="12" t="s">
+      <c r="E133" s="9" t="s">
         <v>128</v>
       </c>
       <c r="F133" t="s">
@@ -4238,7 +4238,7 @@
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="2"/>
-      <c r="E134" s="12" t="s">
+      <c r="E134" s="9" t="s">
         <v>128</v>
       </c>
       <c r="F134" t="s">
@@ -4254,7 +4254,7 @@
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="2"/>
-      <c r="E135" s="12" t="s">
+      <c r="E135" s="9" t="s">
         <v>128</v>
       </c>
       <c r="F135" t="s">
@@ -4270,7 +4270,7 @@
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="2"/>
-      <c r="E136" s="12" t="s">
+      <c r="E136" s="9" t="s">
         <v>128</v>
       </c>
       <c r="F136" t="s">
@@ -4290,7 +4290,7 @@
       <c r="D137" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E137" s="12" t="s">
+      <c r="E137" s="9" t="s">
         <v>128</v>
       </c>
       <c r="F137" t="s">
@@ -4306,7 +4306,7 @@
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="6"/>
-      <c r="E138" s="12" t="s">
+      <c r="E138" s="9" t="s">
         <v>128</v>
       </c>
       <c r="F138" t="s">
@@ -4314,10 +4314,10 @@
       </c>
     </row>
     <row r="139" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="8"/>
-      <c r="B139" s="9"/>
-      <c r="C139" s="9"/>
-      <c r="D139" s="10"/>
+      <c r="A139" s="15"/>
+      <c r="B139" s="16"/>
+      <c r="C139" s="16"/>
+      <c r="D139" s="17"/>
     </row>
     <row r="140" spans="1:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
@@ -7142,12 +7142,12 @@
       </c>
     </row>
     <row r="285" spans="1:6" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="14" t="s">
+      <c r="A285" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="B285" s="15"/>
-      <c r="C285" s="16"/>
-      <c r="D285" s="17"/>
+      <c r="B285" s="13"/>
+      <c r="C285" s="14"/>
+      <c r="D285" s="11"/>
       <c r="E285" t="s">
         <v>357</v>
       </c>
@@ -7436,12 +7436,12 @@
       </c>
     </row>
     <row r="300" spans="1:6" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A300" s="14" t="s">
+      <c r="A300" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="B300" s="15"/>
-      <c r="C300" s="16"/>
-      <c r="D300" s="17"/>
+      <c r="B300" s="13"/>
+      <c r="C300" s="14"/>
+      <c r="D300" s="11"/>
       <c r="E300" t="s">
         <v>357</v>
       </c>
@@ -7716,12 +7716,12 @@
       </c>
     </row>
     <row r="315" spans="1:6" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A315" s="14" t="s">
+      <c r="A315" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="B315" s="15"/>
-      <c r="C315" s="16"/>
-      <c r="D315" s="17"/>
+      <c r="B315" s="13"/>
+      <c r="C315" s="14"/>
+      <c r="D315" s="11"/>
       <c r="E315" t="s">
         <v>357</v>
       </c>
@@ -7750,12 +7750,12 @@
       </c>
     </row>
     <row r="317" spans="1:6" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A317" s="14" t="s">
+      <c r="A317" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="B317" s="15"/>
-      <c r="C317" s="16"/>
-      <c r="D317" s="17"/>
+      <c r="B317" s="13"/>
+      <c r="C317" s="14"/>
+      <c r="D317" s="11"/>
       <c r="E317" t="s">
         <v>357</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>359</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
         <v>360</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="3" t="s">
         <v>362</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
         <v>368</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="3" t="s">
         <v>369</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
         <v>372</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="3" t="s">
         <v>377</v>
       </c>
@@ -8155,7 +8155,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
         <v>378</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="4" t="s">
         <v>380</v>
       </c>

--- a/django_vue/apep/data/BaseOPCO.xlsx
+++ b/django_vue/apep/data/BaseOPCO.xlsx
@@ -1655,10 +1655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G341"/>
+  <dimension ref="A1:F341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="F322" sqref="F322:F341"/>
+    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
+      <selection activeCell="F234" sqref="F234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5995,7 +5995,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
         <v>247</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
         <v>248</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
         <v>249</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
         <v>250</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
         <v>251</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
         <v>252</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>253</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
         <v>254</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
         <v>255</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="5" t="s">
         <v>256</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
         <v>260</v>
       </c>
@@ -6199,11 +6199,11 @@
       <c r="E235" t="s">
         <v>273</v>
       </c>
-      <c r="G235" t="s">
+      <c r="F235" s="7" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
         <v>262</v>
       </c>
@@ -6219,11 +6219,11 @@
       <c r="E236" t="s">
         <v>273</v>
       </c>
-      <c r="G236" t="s">
+      <c r="F236" s="7" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
         <v>263</v>
       </c>
@@ -6239,11 +6239,11 @@
       <c r="E237" t="s">
         <v>273</v>
       </c>
-      <c r="G237" t="s">
+      <c r="F237" s="7" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
         <v>264</v>
       </c>
@@ -6259,11 +6259,11 @@
       <c r="E238" t="s">
         <v>273</v>
       </c>
-      <c r="G238" t="s">
+      <c r="F238" s="7" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
         <v>265</v>
       </c>
@@ -6279,11 +6279,11 @@
       <c r="E239" t="s">
         <v>273</v>
       </c>
-      <c r="G239" t="s">
+      <c r="F239" s="7" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
         <v>267</v>
       </c>
@@ -6299,11 +6299,11 @@
       <c r="E240" t="s">
         <v>273</v>
       </c>
-      <c r="G240" t="s">
+      <c r="F240" s="7" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
         <v>269</v>
       </c>
@@ -6319,11 +6319,11 @@
       <c r="E241" t="s">
         <v>273</v>
       </c>
-      <c r="G241" t="s">
+      <c r="F241" s="7" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
         <v>271</v>
       </c>
@@ -6339,11 +6339,11 @@
       <c r="E242" t="s">
         <v>273</v>
       </c>
-      <c r="G242" t="s">
+      <c r="F242" s="7" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
         <v>272</v>
       </c>
@@ -6359,11 +6359,11 @@
       <c r="E243" t="s">
         <v>273</v>
       </c>
-      <c r="G243" t="s">
+      <c r="F243" s="7" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
         <v>275</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
         <v>276</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
         <v>277</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
         <v>278</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="300.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" ht="300.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
         <v>279</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
         <v>280</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
         <v>282</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
         <v>283</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
         <v>284</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
         <v>285</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
         <v>286</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
         <v>287</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
         <v>288</v>
       </c>
